--- a/test.xlsx
+++ b/test.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ccode\BrainNowTfa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77092D92-81AD-4130-9683-95DB13EDD067}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECFF375-93FF-4EFE-B33F-871AE8879C78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15285" yWindow="4440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26475" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RRI</t>
   </si>
@@ -61,9 +66,6 @@
   </si>
   <si>
     <t>CBF_r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             </t>
   </si>
 </sst>
 </file>
@@ -381,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L161"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,76 +5959,6 @@
         <v>20.715</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B160">
-        <v>1.1303749999999999</v>
-      </c>
-      <c r="C160">
-        <v>180.34892300000001</v>
-      </c>
-      <c r="D160">
-        <v>111.074</v>
-      </c>
-      <c r="E160">
-        <v>75.472999999999999</v>
-      </c>
-      <c r="F160">
-        <v>93.664000000000001</v>
-      </c>
-      <c r="G160">
-        <v>103.43899999999999</v>
-      </c>
-      <c r="H160">
-        <v>30.103000000000002</v>
-      </c>
-      <c r="I160" t="s">
-        <v>12</v>
-      </c>
-      <c r="J160" t="s">
-        <v>12</v>
-      </c>
-      <c r="K160" t="s">
-        <v>12</v>
-      </c>
-      <c r="L160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B161">
-        <v>1.1526670000000001</v>
-      </c>
-      <c r="C161">
-        <v>181.479298</v>
-      </c>
-      <c r="D161">
-        <v>112.369</v>
-      </c>
-      <c r="E161">
-        <v>76.335999999999999</v>
-      </c>
-      <c r="F161">
-        <v>96.081999999999994</v>
-      </c>
-      <c r="G161">
-        <v>93.103999999999999</v>
-      </c>
-      <c r="H161">
-        <v>28.693000000000001</v>
-      </c>
-      <c r="I161" t="s">
-        <v>12</v>
-      </c>
-      <c r="J161" t="s">
-        <v>12</v>
-      </c>
-      <c r="K161" t="s">
-        <v>12</v>
-      </c>
-      <c r="L161" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
